--- a/app/Licenciatura_em_Geologia_Aplicada.xlsx
+++ b/app/Licenciatura_em_Geologia_Aplicada.xlsx
@@ -20,24 +20,22 @@
     <sheet name="20152647" sheetId="10" r:id="rId13"/>
     <sheet name="20152638" sheetId="11" r:id="rId14"/>
     <sheet name="20152641" sheetId="12" r:id="rId15"/>
-    <sheet name="20154450" sheetId="13" r:id="rId16"/>
-    <sheet name="20152646" sheetId="14" r:id="rId17"/>
-    <sheet name="20152648" sheetId="15" r:id="rId18"/>
-    <sheet name="20152633" sheetId="16" r:id="rId19"/>
-    <sheet name="20152627" sheetId="17" r:id="rId20"/>
-    <sheet name="20152628" sheetId="18" r:id="rId21"/>
-    <sheet name="20152635" sheetId="19" r:id="rId22"/>
-    <sheet name="20152626" sheetId="20" r:id="rId23"/>
-    <sheet name="20152642" sheetId="21" r:id="rId24"/>
-    <sheet name="20152645" sheetId="22" r:id="rId25"/>
-    <sheet name="20152630" sheetId="23" r:id="rId26"/>
-    <sheet name="20152634" sheetId="24" r:id="rId27"/>
-    <sheet name="20152632" sheetId="25" r:id="rId28"/>
-    <sheet name="20152625" sheetId="26" r:id="rId29"/>
-    <sheet name="20152631" sheetId="27" r:id="rId30"/>
-    <sheet name="20154449" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId32"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId33"/>
+    <sheet name="20152646" sheetId="13" r:id="rId16"/>
+    <sheet name="20152648" sheetId="14" r:id="rId17"/>
+    <sheet name="20152633" sheetId="15" r:id="rId18"/>
+    <sheet name="20152627" sheetId="16" r:id="rId19"/>
+    <sheet name="20152628" sheetId="17" r:id="rId20"/>
+    <sheet name="20152635" sheetId="18" r:id="rId21"/>
+    <sheet name="20152626" sheetId="19" r:id="rId22"/>
+    <sheet name="20152642" sheetId="20" r:id="rId23"/>
+    <sheet name="20152645" sheetId="21" r:id="rId24"/>
+    <sheet name="20152630" sheetId="22" r:id="rId25"/>
+    <sheet name="20152634" sheetId="23" r:id="rId26"/>
+    <sheet name="20152632" sheetId="24" r:id="rId27"/>
+    <sheet name="20152625" sheetId="25" r:id="rId28"/>
+    <sheet name="20152631" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -194,9 +192,6 @@
     <t>Sara Bernardo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -233,9 +228,6 @@
     <t>Teresa Elisa Tauabo</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -263,9 +255,6 @@
     <t>Sara Raul Machavana</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110502012893P</t>
   </si>
   <si>
@@ -290,9 +279,6 @@
     <t>Sarita Francisco Zimba</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090601733871P</t>
   </si>
   <si>
@@ -386,9 +372,6 @@
     <t>Olga LÚcia Manhique</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100298642I</t>
   </si>
   <si>
@@ -410,9 +393,6 @@
     <t>Serafina Manuel Nhamuende</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100249496Q</t>
   </si>
   <si>
@@ -437,9 +417,6 @@
     <t>Belezita Almeida</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110302611239Q</t>
   </si>
   <si>
@@ -464,9 +441,6 @@
     <t>EstevÃ£o  Namaja Tadiua</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>040102298047P</t>
   </si>
   <si>
@@ -476,15 +450,6 @@
     <t>Outra - Prov Zambezia</t>
   </si>
   <si>
-    <t>Mundai</t>
-  </si>
-  <si>
-    <t>Virgílio Gimo Sumine</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Messo</t>
   </si>
   <si>
@@ -500,9 +465,6 @@
     <t>Filomena Muguta Marire</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101427354J</t>
   </si>
   <si>
@@ -578,9 +540,6 @@
     <t>Maria Luisa</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110300458499M</t>
   </si>
   <si>
@@ -605,9 +564,6 @@
     <t>Albertina  Rungo  Nhanala</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -677,9 +633,6 @@
     <t>Rainha Antonio Costa</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060701512773S</t>
   </si>
   <si>
@@ -813,12 +766,6 @@
   </si>
   <si>
     <t>+258825741444</t>
-  </si>
-  <si>
-    <t>Abal</t>
-  </si>
-  <si>
-    <t>Adila Baguanisi P</t>
   </si>
 </sst>
 </file>
@@ -2078,7 +2025,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2094,7 +2041,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2110,7 +2057,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2126,7 +2073,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2142,7 +2089,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2157,9 +2104,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2167,7 +2112,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2178,7 +2123,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2187,7 +2132,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2199,7 +2144,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2207,7 +2152,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2303,7 +2248,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2346,7 +2291,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2673,7 +2618,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2689,7 +2634,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2705,7 +2650,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2721,7 +2666,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2737,7 +2682,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2752,9 +2697,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2762,7 +2705,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2773,7 +2716,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2782,7 +2725,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2794,7 +2737,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2802,7 +2745,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2898,7 +2841,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2941,7 +2884,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3268,7 +3211,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3284,7 +3227,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3300,7 +3243,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3316,7 +3259,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3332,7 +3275,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3347,9 +3290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3357,7 +3298,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3368,7 +3309,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3377,7 +3318,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3389,7 +3330,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3397,7 +3338,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3493,7 +3434,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3536,7 +3477,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3787,7 +3728,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3837,7 +3780,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154450</v>
+        <v>20152646</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3861,7 +3804,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3877,7 +3820,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3892,7 +3835,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -3906,7 +3851,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3920,7 +3867,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3941,7 +3890,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -3950,14 +3901,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -3967,13 +3922,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4068,7 +4027,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4094,7 +4053,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4108,7 +4069,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4410,7 +4373,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152646</v>
+        <v>20152648</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4434,7 +4397,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4450,7 +4413,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4466,7 +4429,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4482,7 +4445,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4498,7 +4461,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4513,9 +4476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4523,7 +4484,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4534,7 +4495,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4543,7 +4504,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4555,7 +4516,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4563,7 +4524,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4659,7 +4620,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4686,7 +4647,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4702,7 +4663,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5005,7 +4966,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152648</v>
+        <v>20152633</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5029,7 +4990,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5045,7 +5006,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5061,7 +5022,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5077,7 +5038,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5093,7 +5054,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5108,9 +5069,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5118,7 +5077,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5129,7 +5088,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5138,7 +5097,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5150,7 +5109,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5158,7 +5117,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5254,7 +5213,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5281,7 +5240,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5297,7 +5256,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5600,7 +5559,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152633</v>
+        <v>20152627</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5624,7 +5583,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5640,7 +5599,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5656,7 +5615,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5672,7 +5631,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5688,7 +5647,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5703,9 +5662,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5713,7 +5670,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5724,7 +5681,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5733,7 +5690,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5745,7 +5702,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5753,7 +5710,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5849,7 +5806,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5876,7 +5833,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5892,7 +5849,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6195,7 +6152,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152627</v>
+        <v>20152628</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6219,7 +6176,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6235,7 +6192,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6251,7 +6208,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6267,7 +6224,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6283,7 +6240,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6298,9 +6255,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6308,7 +6263,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6319,7 +6274,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6328,7 +6283,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6340,15 +6295,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>178</v>
+      <c r="H17" s="20">
+        <v>377756</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6444,7 +6399,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6471,7 +6426,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6487,7 +6442,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6790,7 +6745,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152628</v>
+        <v>20152635</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6814,7 +6769,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6830,7 +6785,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6846,7 +6801,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6862,7 +6817,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6878,7 +6833,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6893,9 +6848,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6903,7 +6856,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6914,7 +6867,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6923,7 +6876,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6935,15 +6888,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>377756</v>
+      <c r="H17" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7039,7 +6992,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7082,7 +7035,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7385,7 +7338,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152635</v>
+        <v>20152626</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7409,7 +7362,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7425,7 +7378,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7441,7 +7394,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7457,7 +7410,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7473,7 +7426,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7488,9 +7441,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7498,7 +7449,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7509,7 +7460,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7518,7 +7469,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7530,7 +7481,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7538,7 +7489,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7634,7 +7585,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7661,7 +7612,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7677,7 +7628,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8083,9 +8034,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8093,7 +8042,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8104,7 +8053,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8113,7 +8062,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8125,7 +8074,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8133,7 +8082,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8229,7 +8178,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8272,7 +8221,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8575,7 +8524,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152626</v>
+        <v>20152642</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8599,7 +8548,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8615,7 +8564,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8631,7 +8580,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8647,7 +8596,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8663,7 +8612,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8678,9 +8627,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8688,7 +8635,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8699,7 +8646,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8708,7 +8655,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8720,7 +8667,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8728,7 +8675,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8824,7 +8771,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8851,7 +8798,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8867,7 +8814,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9170,7 +9117,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152642</v>
+        <v>20152645</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9194,7 +9141,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9210,7 +9157,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9226,7 +9173,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9242,7 +9189,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9258,7 +9205,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9273,9 +9220,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9283,7 +9228,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9294,7 +9239,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9303,7 +9248,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9315,7 +9260,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9323,7 +9268,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9419,7 +9364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9462,7 +9407,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9765,7 +9710,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152645</v>
+        <v>20152630</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9789,7 +9734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9805,7 +9750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9821,7 +9766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9837,7 +9782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9853,7 +9798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9868,9 +9813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9878,7 +9821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9889,7 +9832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9898,7 +9841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9910,7 +9853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9918,7 +9861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10014,7 +9957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10041,7 +9984,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10057,7 +10000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10360,7 +10303,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152630</v>
+        <v>20152634</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10384,7 +10327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10400,7 +10343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10416,7 +10359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10432,7 +10375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10448,7 +10391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10463,9 +10406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10473,7 +10414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10484,7 +10425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10493,7 +10434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10505,7 +10446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10513,7 +10454,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10609,7 +10550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10652,7 +10593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10955,7 +10896,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152634</v>
+        <v>20152632</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10979,7 +10920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10995,7 +10936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11011,7 +10952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11027,7 +10968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11043,7 +10984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11058,9 +10999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11068,7 +11007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11079,7 +11018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11088,7 +11027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11100,15 +11039,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>234</v>
+      <c r="H17" s="20">
+        <v>393993</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11204,7 +11143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11231,7 +11170,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11247,7 +11186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11550,7 +11489,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152632</v>
+        <v>20152625</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11574,7 +11513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11590,7 +11529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11606,7 +11545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11622,7 +11561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11638,7 +11577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11653,9 +11592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11663,7 +11600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11674,7 +11611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11683,7 +11620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11695,15 +11632,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>393993</v>
+      <c r="H17" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11799,7 +11736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11826,7 +11763,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11842,7 +11779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12145,7 +12082,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152625</v>
+        <v>20152631</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12169,7 +12106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12185,7 +12122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12201,7 +12138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12217,7 +12154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12233,7 +12170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12248,9 +12185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12258,7 +12193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12269,7 +12204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12278,7 +12213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12290,7 +12225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12298,7 +12233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12394,7 +12329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12421,7 +12356,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12437,7 +12372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12640,6 +12575,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -12740,7 +12731,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152631</v>
+        <v>20152640</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12764,7 +12755,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12780,7 +12771,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12796,7 +12787,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12812,7 +12803,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12828,7 +12819,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12843,9 +12834,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12853,7 +12842,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12864,7 +12853,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12873,7 +12862,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12885,7 +12874,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12893,7 +12882,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12989,7 +12978,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13016,7 +13005,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13032,7 +13021,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13230,1228 +13219,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154449</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152640</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -14581,7 +13348,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14597,7 +13364,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14613,7 +13380,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14629,7 +13396,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14645,7 +13412,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14660,9 +13427,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14670,7 +13435,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14681,7 +13446,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14690,7 +13455,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14702,7 +13467,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14710,7 +13475,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14806,7 +13571,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14849,7 +13614,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15176,7 +13941,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15192,7 +13957,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15208,7 +13973,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15224,7 +13989,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15240,7 +14005,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15255,9 +14020,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15265,7 +14028,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15276,7 +14039,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15285,7 +14048,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15297,7 +14060,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15305,7 +14068,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15401,7 +14164,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15444,7 +14207,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15771,7 +14534,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15787,7 +14550,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15803,7 +14566,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15819,7 +14582,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15835,7 +14598,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15850,9 +14613,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15860,7 +14621,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15871,7 +14632,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15880,7 +14641,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15892,7 +14653,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15900,7 +14661,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15996,7 +14757,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16039,7 +14800,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16366,7 +15127,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16382,7 +15143,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16398,7 +15159,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16414,7 +15175,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16430,7 +15191,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16445,9 +15206,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16455,7 +15214,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16466,7 +15225,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16475,7 +15234,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16487,7 +15246,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16495,7 +15254,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16591,7 +15350,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16634,7 +15393,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16961,7 +15720,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16977,7 +15736,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16993,7 +15752,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17009,7 +15768,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17025,7 +15784,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17040,9 +15799,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17050,7 +15807,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17061,7 +15818,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17070,7 +15827,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17082,7 +15839,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17090,7 +15847,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17186,7 +15943,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17229,7 +15986,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17556,7 +16313,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17572,7 +16329,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17588,7 +16345,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17604,7 +16361,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17620,7 +16377,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17635,9 +16392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17645,7 +16400,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17656,7 +16411,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17665,7 +16420,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17677,7 +16432,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17685,7 +16440,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17781,7 +16536,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17824,7 +16579,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
